--- a/WebContent/FrameTemplate.xlsx
+++ b/WebContent/FrameTemplate.xlsx
@@ -3,27 +3,37 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9504" windowHeight="2880" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>UUID</t>
+  </si>
   <si>
     <t>1000lookz_ID</t>
   </si>
   <si>
+    <t>Internal id</t>
+  </si>
+  <si>
     <t>Model Number</t>
   </si>
   <si>
@@ -87,49 +97,36 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>UUID</t>
-  </si>
-  <si>
-    <t>Internal id</t>
-  </si>
-  <si>
     <t>Path</t>
+  </si>
+  <si>
+    <t>Parent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Cambria"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -142,7 +139,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEFEFEF"/>
-        <bgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -164,15 +161,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -203,11 +196,79 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{E1867B13-7F44-4A39-830E-A4B8054CE6E1}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{8D6471BF-1468-4542-ADC4-D3FB3F67FA5C}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFEFEFEF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -516,431 +577,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875"/>
+    <col min="2" max="2" width="38.88671875"/>
+    <col min="3" max="3" width="18.21875"/>
+    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.21875"/>
+    <col min="6" max="1026" width="13.88671875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="Z2" s="5"/>
+    <row r="2" spans="1:27">
+      <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B3" s="4"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="Z3" s="5"/>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="Z4" s="5"/>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="Z5" s="5"/>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="Z6" s="5"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="Z7" s="5"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="Z8" s="5"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="Z9" s="5"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="Z10" s="5"/>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="Z11" s="5"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="Z12" s="5"/>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="Z13" s="5"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="Z14" s="5"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="Z15" s="5"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="Z16" s="5"/>
-    </row>
+    <row r="14" spans="1:27" customFormat="1"/>
+    <row r="15" spans="1:27" customFormat="1"/>
+    <row r="16" spans="1:27" customFormat="1"/>
+    <row r="1048569" spans="1:27" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="1048570" spans="1:27" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="1048571" spans="1:27" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="1048572" spans="1:27" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="1048573" spans="1:27" customFormat="1" ht="12.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>